--- a/data/trans_orig/P24F-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24F-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>12464</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5818</v>
+        <v>6766</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20948</v>
+        <v>22880</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03903864633770027</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.018221301863689</v>
+        <v>0.02119252990060482</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06560894637448351</v>
+        <v>0.0716614104315047</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -764,19 +764,19 @@
         <v>11910</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6946</v>
+        <v>6181</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19682</v>
+        <v>19684</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07360923235086952</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04292954672820895</v>
+        <v>0.03820338900915415</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1216452797980541</v>
+        <v>0.1216557518411982</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -785,19 +785,19 @@
         <v>24374</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15882</v>
+        <v>15705</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35115</v>
+        <v>36777</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05066558967236479</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03301386364230081</v>
+        <v>0.0326454844953792</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07299168908320093</v>
+        <v>0.07644572897219669</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>133470</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>116121</v>
+        <v>116220</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>151373</v>
+        <v>151058</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4180331450209054</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3636959901555464</v>
+        <v>0.3640055321374608</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4741061213953315</v>
+        <v>0.4731181257447987</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>76</v>
@@ -835,19 +835,19 @@
         <v>76642</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>63794</v>
+        <v>64509</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>89235</v>
+        <v>89925</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4736883184615952</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3942762516591719</v>
+        <v>0.3986985365101155</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.55152014872405</v>
+        <v>0.5557838137260023</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>205</v>
@@ -856,19 +856,19 @@
         <v>210112</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>190151</v>
+        <v>186134</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>230760</v>
+        <v>230935</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4367513567292439</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3952580365524367</v>
+        <v>0.3869090608451929</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4796702619944709</v>
+        <v>0.4800351383076403</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>129607</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>111740</v>
+        <v>112350</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>146478</v>
+        <v>148481</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4059323985106763</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3499752549989716</v>
+        <v>0.3518848781849472</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4587735248248173</v>
+        <v>0.4650481506703047</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>54</v>
@@ -906,19 +906,19 @@
         <v>52529</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>42293</v>
+        <v>40600</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>65645</v>
+        <v>65133</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3246581294986644</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2613910342771965</v>
+        <v>0.2509260212936654</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4057192070309555</v>
+        <v>0.4025557709597271</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>182</v>
@@ -927,19 +927,19 @@
         <v>182136</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>161765</v>
+        <v>160572</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>204140</v>
+        <v>203912</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3785978511585149</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3362536938399305</v>
+        <v>0.3337746566174385</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4243362105161255</v>
+        <v>0.4238637050121768</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>43740</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32278</v>
+        <v>31711</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56662</v>
+        <v>56218</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.136995810130718</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1010952655407326</v>
+        <v>0.09932043264973334</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.177469004597918</v>
+        <v>0.1760761969532519</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -977,19 +977,19 @@
         <v>20717</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12876</v>
+        <v>13401</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29431</v>
+        <v>30016</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1280443196888708</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07958255584573656</v>
+        <v>0.08282259077671948</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1818955768834122</v>
+        <v>0.1855115978020801</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>62</v>
@@ -998,19 +998,19 @@
         <v>64458</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50434</v>
+        <v>50959</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78863</v>
+        <v>80649</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1339852024398764</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1048358668309308</v>
+        <v>0.1059254160892508</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1639288624343468</v>
+        <v>0.1676411575862181</v>
       </c>
     </row>
     <row r="8">
@@ -1102,19 +1102,19 @@
         <v>18609</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11281</v>
+        <v>11401</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27129</v>
+        <v>28554</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04580386171469757</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02776663993797472</v>
+        <v>0.02806093450694579</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06677531966718207</v>
+        <v>0.07028139128618555</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -1123,19 +1123,19 @@
         <v>9260</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4129</v>
+        <v>4319</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16704</v>
+        <v>17402</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04077037270150223</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01817781353057235</v>
+        <v>0.01901697512363303</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07354301146037878</v>
+        <v>0.07661613384233786</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>27</v>
@@ -1144,19 +1144,19 @@
         <v>27870</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>18665</v>
+        <v>18557</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>38935</v>
+        <v>39142</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04399891098023517</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02946652900625104</v>
+        <v>0.02929593399192846</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06146898023058628</v>
+        <v>0.06179556261134024</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>143840</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>123984</v>
+        <v>123822</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>163502</v>
+        <v>162507</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3540411440575502</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3051692781723968</v>
+        <v>0.3047698256038625</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4024375192161629</v>
+        <v>0.3999879268666351</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -1194,19 +1194,19 @@
         <v>73097</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59422</v>
+        <v>58252</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87688</v>
+        <v>86074</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3218190401611673</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2616126960525119</v>
+        <v>0.2564622283193333</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.386059205831828</v>
+        <v>0.3789552800939678</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>206</v>
@@ -1215,19 +1215,19 @@
         <v>216937</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>193671</v>
+        <v>196123</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>241902</v>
+        <v>243918</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.34248667161483</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3057567415736493</v>
+        <v>0.3096274216076094</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3819003092401106</v>
+        <v>0.3850829367063276</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>151137</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>130224</v>
+        <v>131775</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>171171</v>
+        <v>170955</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3720022041507161</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3205267119021091</v>
+        <v>0.3243443186563196</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4213137263097216</v>
+        <v>0.4207800284425721</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>99</v>
@@ -1265,19 +1265,19 @@
         <v>106132</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>91067</v>
+        <v>91534</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>122683</v>
+        <v>121107</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4672598363491178</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4009361449877188</v>
+        <v>0.4029923372903851</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5401299859744004</v>
+        <v>0.5331896991076291</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>239</v>
@@ -1286,19 +1286,19 @@
         <v>257269</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>233350</v>
+        <v>230382</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>285666</v>
+        <v>280729</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4061604853645867</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3683994534533459</v>
+        <v>0.3637135561686748</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4509925467872537</v>
+        <v>0.4431981222227209</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>92694</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>73730</v>
+        <v>76532</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>109790</v>
+        <v>111851</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2281527900770362</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1814759106660983</v>
+        <v>0.1883727883159043</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2702320366776427</v>
+        <v>0.2753049561458643</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>37</v>
@@ -1336,19 +1336,19 @@
         <v>38647</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>28028</v>
+        <v>28145</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>51082</v>
+        <v>50461</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1701507507882127</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.123396936648767</v>
+        <v>0.123914177379161</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2248979696596065</v>
+        <v>0.2221641043111531</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>121</v>
@@ -1357,19 +1357,19 @@
         <v>131341</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>111076</v>
+        <v>111929</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>154536</v>
+        <v>153507</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2073539320403482</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1753598188161882</v>
+        <v>0.176706363894616</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2439719142337461</v>
+        <v>0.2423484784753557</v>
       </c>
     </row>
     <row r="13">
@@ -1461,19 +1461,19 @@
         <v>2835</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7392</v>
+        <v>6733</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01120677488133525</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003677516968676438</v>
+        <v>0.003641120938839755</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02921870186055353</v>
+        <v>0.02661382210413537</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6257</v>
+        <v>7097</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01176476684314858</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03680422997549091</v>
+        <v>0.04174433758687444</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1503,19 +1503,19 @@
         <v>4835</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1933</v>
+        <v>1898</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11650</v>
+        <v>11657</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01143104088255977</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004569367268135791</v>
+        <v>0.004487259844592914</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02754310839094646</v>
+        <v>0.02755956418317251</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>77515</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>63867</v>
+        <v>63099</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>93330</v>
+        <v>93483</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3064149231441095</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2524627490831545</v>
+        <v>0.249426371079043</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3689287743404151</v>
+        <v>0.3695351855652959</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>51</v>
@@ -1553,19 +1553,19 @@
         <v>48959</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>37732</v>
+        <v>38644</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>60974</v>
+        <v>60732</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2879903258288551</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2219540570861644</v>
+        <v>0.2273163979734198</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3586696380205168</v>
+        <v>0.3572431268842599</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>126</v>
@@ -1574,19 +1574,19 @@
         <v>126474</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>108506</v>
+        <v>108082</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>146221</v>
+        <v>146813</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2990097792588172</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2565291287973555</v>
+        <v>0.2555266156820257</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3456963717958506</v>
+        <v>0.3470958333503675</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>118793</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>103655</v>
+        <v>101590</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>135208</v>
+        <v>135950</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4695836744738948</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4097433489476419</v>
+        <v>0.4015792850063157</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5344720973094559</v>
+        <v>0.5374038495975691</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>87</v>
@@ -1624,19 +1624,19 @@
         <v>82551</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>69979</v>
+        <v>70438</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>95262</v>
+        <v>94813</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4855886480452293</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4116385633777416</v>
+        <v>0.4143370185074784</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5603596064906229</v>
+        <v>0.5577226440850339</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>196</v>
@@ -1645,19 +1645,19 @@
         <v>201343</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>181680</v>
+        <v>179963</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>222490</v>
+        <v>221588</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.476016332411982</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4295271838191678</v>
+        <v>0.4254687033171047</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5260116009210377</v>
+        <v>0.5238777536678213</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>53832</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>41687</v>
+        <v>41889</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>69491</v>
+        <v>68508</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2127946275006605</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1647860565902554</v>
+        <v>0.1655871569833883</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2746935827040556</v>
+        <v>0.2708074363425996</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>36</v>
@@ -1695,19 +1695,19 @@
         <v>36492</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26322</v>
+        <v>26569</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47127</v>
+        <v>47464</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2146562592827671</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1548326142653896</v>
+        <v>0.1562843780125889</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2772170995500814</v>
+        <v>0.279198852595382</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>86</v>
@@ -1716,19 +1716,19 @@
         <v>90323</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>73031</v>
+        <v>74822</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>106416</v>
+        <v>108620</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.213542847446641</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1726596077679052</v>
+        <v>0.1768946145070701</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2515892229557735</v>
+        <v>0.2568002442821605</v>
       </c>
     </row>
     <row r="18">
@@ -1820,19 +1820,19 @@
         <v>22148</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13863</v>
+        <v>13544</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32576</v>
+        <v>32846</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05469954677280899</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03423801074756389</v>
+        <v>0.0334514421294864</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08045651867418149</v>
+        <v>0.08112212528937374</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -1841,19 +1841,19 @@
         <v>24024</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15911</v>
+        <v>16263</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34100</v>
+        <v>34867</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07892419596019559</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05227045841027283</v>
+        <v>0.05342637400508134</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1120271724904338</v>
+        <v>0.1145452432104249</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>46</v>
@@ -1862,19 +1862,19 @@
         <v>46172</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>34680</v>
+        <v>34036</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>61281</v>
+        <v>60256</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06509566171156846</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04889457646263635</v>
+        <v>0.04798607044213803</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08639799277673825</v>
+        <v>0.08495228027769137</v>
       </c>
     </row>
     <row r="20">
@@ -1891,19 +1891,19 @@
         <v>161753</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>143257</v>
+        <v>142975</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>180911</v>
+        <v>179843</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3994943366628518</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3538139510214267</v>
+        <v>0.3531182356281411</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4468113704110348</v>
+        <v>0.4441722200311138</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>98</v>
@@ -1912,19 +1912,19 @@
         <v>104257</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>88247</v>
+        <v>88097</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>121186</v>
+        <v>121303</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3425051517503804</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2899118118585318</v>
+        <v>0.2894178246345119</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.39812308889954</v>
+        <v>0.3985076582362423</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>268</v>
@@ -1933,19 +1933,19 @@
         <v>266010</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>240319</v>
+        <v>242937</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>291059</v>
+        <v>294492</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.375037176848758</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3388165994275438</v>
+        <v>0.3425079349675166</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.410353117812591</v>
+        <v>0.4151931481626058</v>
       </c>
     </row>
     <row r="21">
@@ -1962,19 +1962,19 @@
         <v>140342</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>122889</v>
+        <v>124554</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>160443</v>
+        <v>161782</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.346615154544575</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3035098716858758</v>
+        <v>0.3076205490466575</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3962588320385146</v>
+        <v>0.3995658373815135</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>113</v>
@@ -1983,19 +1983,19 @@
         <v>118020</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>100960</v>
+        <v>100049</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>134971</v>
+        <v>134072</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3877213731247883</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3316754316725887</v>
+        <v>0.3286833340204</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4434102514029226</v>
+        <v>0.440455678952441</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>260</v>
@@ -2004,19 +2004,19 @@
         <v>258363</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>233463</v>
+        <v>233865</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>285165</v>
+        <v>285323</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3642560693727732</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3291510877656544</v>
+        <v>0.329717766934752</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4020432521062453</v>
+        <v>0.4022664694375626</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>80651</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>65906</v>
+        <v>64802</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>97658</v>
+        <v>97604</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1991909620197642</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1627722710232683</v>
+        <v>0.160046013424731</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2411937331094248</v>
+        <v>0.2410618134526397</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -2054,19 +2054,19 @@
         <v>58093</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45613</v>
+        <v>45622</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>71737</v>
+        <v>72948</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1908492791646358</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1498497942617899</v>
+        <v>0.1498774117567029</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.235671206266204</v>
+        <v>0.2396502925788751</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>140</v>
@@ -2075,19 +2075,19 @@
         <v>138745</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>117976</v>
+        <v>119294</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>162425</v>
+        <v>159745</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1956110920669003</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1663297125857212</v>
+        <v>0.1681875407795947</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.228996234679523</v>
+        <v>0.2252187905995781</v>
       </c>
     </row>
     <row r="23">
@@ -2179,19 +2179,19 @@
         <v>56056</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>42806</v>
+        <v>42094</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>71677</v>
+        <v>72603</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04051960713749275</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03094203477931582</v>
+        <v>0.03042711351279731</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05181115885490393</v>
+        <v>0.05248029570981885</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>47</v>
@@ -2200,19 +2200,19 @@
         <v>47194</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>35521</v>
+        <v>35397</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>62105</v>
+        <v>61105</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05466554507205043</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04114450064240743</v>
+        <v>0.04100007891630292</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07193685769190881</v>
+        <v>0.07077806616992886</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>101</v>
@@ -2221,19 +2221,19 @@
         <v>103250</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>85043</v>
+        <v>85651</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>125346</v>
+        <v>125091</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04595526070626757</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03785155746756642</v>
+        <v>0.0381219609502538</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05578981086327366</v>
+        <v>0.05567619078493789</v>
       </c>
     </row>
     <row r="25">
@@ -2250,19 +2250,19 @@
         <v>516578</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>483631</v>
+        <v>481124</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>555762</v>
+        <v>553754</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3734037997222054</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3495879868338956</v>
+        <v>0.3477760941765265</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4017272464653867</v>
+        <v>0.4002759809044142</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>295</v>
@@ -2271,19 +2271,19 @@
         <v>302954</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>276254</v>
+        <v>274507</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>330533</v>
+        <v>332210</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3509134986415854</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3199861169043852</v>
+        <v>0.3179634430225631</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3828580724721246</v>
+        <v>0.3848004908363523</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>805</v>
@@ -2292,19 +2292,19 @@
         <v>819533</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>770787</v>
+        <v>772365</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>862663</v>
+        <v>863640</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3647617792427401</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3430657879149576</v>
+        <v>0.3437680263186272</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3839584099116888</v>
+        <v>0.3843931342814563</v>
       </c>
     </row>
     <row r="26">
@@ -2321,19 +2321,19 @@
         <v>539879</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>504871</v>
+        <v>505576</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>574223</v>
+        <v>576835</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3902466234969971</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3649408964771778</v>
+        <v>0.3654510389525673</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4150719851472914</v>
+        <v>0.4169598496098112</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>353</v>
@@ -2342,19 +2342,19 @@
         <v>359231</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>331356</v>
+        <v>329812</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>386766</v>
+        <v>388500</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4160998444224285</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3838109551701237</v>
+        <v>0.3820233667947717</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4479938117412589</v>
+        <v>0.4500017644888622</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>877</v>
@@ -2363,19 +2363,19 @@
         <v>899111</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>857610</v>
+        <v>848936</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>949308</v>
+        <v>944461</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4001808642124424</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3817096772335616</v>
+        <v>0.3778487798948141</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4225229424056313</v>
+        <v>0.420365389836263</v>
       </c>
     </row>
     <row r="27">
@@ -2392,19 +2392,19 @@
         <v>270917</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>239479</v>
+        <v>242404</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>299182</v>
+        <v>303443</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1958299696433048</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1731047687364199</v>
+        <v>0.1752192171451468</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2162605524372919</v>
+        <v>0.2193408799635775</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>150</v>
@@ -2413,19 +2413,19 @@
         <v>153950</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>132606</v>
+        <v>133022</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>176189</v>
+        <v>178889</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1783211118639356</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1535982154552338</v>
+        <v>0.1540804137721732</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2040802263719613</v>
+        <v>0.2072077160442669</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>409</v>
@@ -2434,19 +2434,19 @@
         <v>424867</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>391045</v>
+        <v>392284</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>463907</v>
+        <v>468606</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1891020958385499</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1740482272193837</v>
+        <v>0.1745996439926921</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2064780530220858</v>
+        <v>0.2085694020742133</v>
       </c>
     </row>
     <row r="28">
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7739</v>
+        <v>7138</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008080672873420007</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02870758486503149</v>
+        <v>0.02647655496785429</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4686</v>
+        <v>5624</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007035187564595872</v>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0291455415401399</v>
+        <v>0.03497692446803916</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -2820,19 +2820,19 @@
         <v>3310</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9086</v>
+        <v>9800</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007690067923492918</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002319785618448881</v>
+        <v>0.0023236681900701</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02111097593068666</v>
+        <v>0.02276989925168537</v>
       </c>
     </row>
     <row r="5">
@@ -2849,19 +2849,19 @@
         <v>38760</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27913</v>
+        <v>28263</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52800</v>
+        <v>52664</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1437773714505669</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1035409222110241</v>
+        <v>0.1048411830399309</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1958595457519855</v>
+        <v>0.1953528857540401</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -2870,19 +2870,19 @@
         <v>30096</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20373</v>
+        <v>20448</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41784</v>
+        <v>41861</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1871725379010211</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1267003071125783</v>
+        <v>0.1271721627738484</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2598640863836328</v>
+        <v>0.2603431541628104</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>63</v>
@@ -2891,19 +2891,19 @@
         <v>68856</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53041</v>
+        <v>54575</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>86121</v>
+        <v>85775</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1599902887200803</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1232441830489184</v>
+        <v>0.1268085261004066</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2001062904646016</v>
+        <v>0.1993032648005026</v>
       </c>
     </row>
     <row r="6">
@@ -2920,19 +2920,19 @@
         <v>186445</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>170441</v>
+        <v>170015</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>202078</v>
+        <v>200439</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6916069516393488</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6322383726908748</v>
+        <v>0.6306601993209068</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7495957682246148</v>
+        <v>0.743516009465062</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>98</v>
@@ -2941,19 +2941,19 @@
         <v>107708</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>94922</v>
+        <v>95416</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>119657</v>
+        <v>120152</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6698523442356529</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5903376238529398</v>
+        <v>0.593409561042658</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7441671354410919</v>
+        <v>0.7472483574142696</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>276</v>
@@ -2962,19 +2962,19 @@
         <v>294153</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>274429</v>
+        <v>273169</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>313563</v>
+        <v>313525</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6834791881367117</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6376489351245551</v>
+        <v>0.6347211528493839</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7285798082979107</v>
+        <v>0.728490936997475</v>
       </c>
     </row>
     <row r="7">
@@ -2991,19 +2991,19 @@
         <v>42199</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31788</v>
+        <v>31289</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54968</v>
+        <v>53858</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1565350040366642</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1179170319544564</v>
+        <v>0.1160658307567258</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2039018694689812</v>
+        <v>0.1997842640459937</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -3012,19 +3012,19 @@
         <v>21858</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14217</v>
+        <v>13820</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31064</v>
+        <v>30896</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1359399302987302</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08841665522654013</v>
+        <v>0.08595102010980404</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1931946769450047</v>
+        <v>0.1921504041072662</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>65</v>
@@ -3033,19 +3033,19 @@
         <v>64057</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50922</v>
+        <v>49811</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79370</v>
+        <v>79144</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1488404552197151</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1183194299728908</v>
+        <v>0.1157388961711398</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1844210239513735</v>
+        <v>0.183893980703795</v>
       </c>
     </row>
     <row r="8">
@@ -3137,19 +3137,19 @@
         <v>4172</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1053</v>
+        <v>947</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10299</v>
+        <v>9879</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.010347619145145</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002611333642794296</v>
+        <v>0.002348103258714757</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.025543412518765</v>
+        <v>0.02450167044178156</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -3158,19 +3158,19 @@
         <v>3157</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9201</v>
+        <v>8516</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01087379037889909</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.003545328511144402</v>
+        <v>0.003530659360412104</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03168798799667365</v>
+        <v>0.02933126062651084</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -3179,19 +3179,19 @@
         <v>7329</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3076</v>
+        <v>3107</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14304</v>
+        <v>14802</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01056789449000554</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004434570166118682</v>
+        <v>0.004479263279425987</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02062456392283421</v>
+        <v>0.02134278696388383</v>
       </c>
     </row>
     <row r="10">
@@ -3208,19 +3208,19 @@
         <v>57128</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42859</v>
+        <v>44403</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72700</v>
+        <v>72437</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1416839413748281</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1062949815397141</v>
+        <v>0.1101261425299215</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1803064478475462</v>
+        <v>0.1796519852056907</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -3229,19 +3229,19 @@
         <v>30600</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20691</v>
+        <v>20977</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42536</v>
+        <v>42202</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1053895653942463</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07126393916674258</v>
+        <v>0.0722474856120934</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1465012984258156</v>
+        <v>0.145350100454286</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -3250,19 +3250,19 @@
         <v>87727</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>69830</v>
+        <v>69079</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>106124</v>
+        <v>106310</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1264897314432432</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1006849606677827</v>
+        <v>0.09960134596704784</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1530147698524094</v>
+        <v>0.1532838450875056</v>
       </c>
     </row>
     <row r="11">
@@ -3279,19 +3279,19 @@
         <v>265141</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>244555</v>
+        <v>247173</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>284467</v>
+        <v>283855</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6575846941507701</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6065288965002914</v>
+        <v>0.613020107203468</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7055152220099451</v>
+        <v>0.7039961582381374</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>182</v>
@@ -3300,19 +3300,19 @@
         <v>199001</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>181015</v>
+        <v>182411</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>214099</v>
+        <v>215857</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6853895516966815</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6234448428263059</v>
+        <v>0.6282522764148776</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7373912405232115</v>
+        <v>0.7434451936411725</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>424</v>
@@ -3321,19 +3321,19 @@
         <v>464142</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>439052</v>
+        <v>438177</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>489119</v>
+        <v>491146</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6692248679037621</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6330486823264058</v>
+        <v>0.6317860824711402</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7052371450080891</v>
+        <v>0.7081608637631451</v>
       </c>
     </row>
     <row r="12">
@@ -3350,19 +3350,19 @@
         <v>76764</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>60960</v>
+        <v>61659</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>95011</v>
+        <v>94187</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1903837453292567</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1511881040173836</v>
+        <v>0.1529211217106863</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2356385339342247</v>
+        <v>0.2335966092325966</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>52</v>
@@ -3371,19 +3371,19 @@
         <v>57589</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>44795</v>
+        <v>44896</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>73456</v>
+        <v>73905</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1983470925301732</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1542798963324324</v>
+        <v>0.1546290450274199</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2529937417110066</v>
+        <v>0.2545414551453671</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>123</v>
@@ -3392,19 +3392,19 @@
         <v>134353</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>113924</v>
+        <v>112727</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>157444</v>
+        <v>157121</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1937175061629892</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1642622376716631</v>
+        <v>0.1625351412355526</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2270108247526497</v>
+        <v>0.2265448003921286</v>
       </c>
     </row>
     <row r="13">
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6263</v>
+        <v>6534</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006278557016892837</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01996118172065557</v>
+        <v>0.02082672968630564</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -3517,19 +3517,19 @@
         <v>4226</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10752</v>
+        <v>9562</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01847548859187852</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004594720192516805</v>
+        <v>0.004515516699624647</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04700957674783353</v>
+        <v>0.04180605047704779</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -3538,19 +3538,19 @@
         <v>6196</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2206</v>
+        <v>2192</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12397</v>
+        <v>13374</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01142106853352439</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004067231488121188</v>
+        <v>0.004040460651858199</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02285322232282939</v>
+        <v>0.02465384554413752</v>
       </c>
     </row>
     <row r="15">
@@ -3567,19 +3567,19 @@
         <v>47513</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>35178</v>
+        <v>35253</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>60997</v>
+        <v>61923</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1514336787403777</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1121194220645878</v>
+        <v>0.1123603252535177</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1944111619833762</v>
+        <v>0.1973620560535004</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>32</v>
@@ -3588,19 +3588,19 @@
         <v>33918</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>24289</v>
+        <v>23349</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>47531</v>
+        <v>44880</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1482949175947451</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1061973976886709</v>
+        <v>0.1020843397265771</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2078160215082431</v>
+        <v>0.1962231712677918</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>76</v>
@@ -3609,19 +3609,19 @@
         <v>81431</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>66431</v>
+        <v>64873</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>102892</v>
+        <v>98866</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1501103036570514</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1224594989021822</v>
+        <v>0.1195884181396248</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1896727684478731</v>
+        <v>0.1822513732414485</v>
       </c>
     </row>
     <row r="16">
@@ -3638,19 +3638,19 @@
         <v>188723</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>171428</v>
+        <v>169044</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>206676</v>
+        <v>206067</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6015033328955925</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5463793536446753</v>
+        <v>0.5387800593514934</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6587220418420834</v>
+        <v>0.6567801587369826</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>122</v>
@@ -3659,19 +3659,19 @@
         <v>135607</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>119809</v>
+        <v>121401</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>151339</v>
+        <v>151862</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5928975179845213</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5238268432843056</v>
+        <v>0.5307862358941982</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6616802812744188</v>
+        <v>0.6639668649215836</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>290</v>
@@ -3680,19 +3680,19 @@
         <v>324330</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>302110</v>
+        <v>297404</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>347068</v>
+        <v>348262</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5978749201248801</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5569129452083169</v>
+        <v>0.5482382595934897</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6397902087292761</v>
+        <v>0.6419903398655186</v>
       </c>
     </row>
     <row r="17">
@@ -3709,19 +3709,19 @@
         <v>75547</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>59979</v>
+        <v>60465</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>92872</v>
+        <v>92083</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.240784431347137</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1911656267053551</v>
+        <v>0.1927148072808402</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2960039468613214</v>
+        <v>0.2934882086826721</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -3730,19 +3730,19 @@
         <v>54969</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41172</v>
+        <v>41730</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>69881</v>
+        <v>70137</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2403320758288551</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.180009645169819</v>
+        <v>0.182453115169101</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3055317968668365</v>
+        <v>0.3066533425781741</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>117</v>
@@ -3751,19 +3751,19 @@
         <v>130515</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>110300</v>
+        <v>109684</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>152667</v>
+        <v>153293</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2405937076845441</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2033290417514969</v>
+        <v>0.202192171523177</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2814285590830699</v>
+        <v>0.2825822323457114</v>
       </c>
     </row>
     <row r="18">
@@ -3855,19 +3855,19 @@
         <v>13558</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7832</v>
+        <v>7718</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23643</v>
+        <v>21778</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03742756127129379</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0216198965704088</v>
+        <v>0.02130662633071624</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06526770348777619</v>
+        <v>0.06012022802173106</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -3876,19 +3876,19 @@
         <v>5355</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2074</v>
+        <v>2031</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12780</v>
+        <v>12378</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01831782349726834</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007096128121030148</v>
+        <v>0.006948712866916628</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04371901219121432</v>
+        <v>0.04234593010427015</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -3897,19 +3897,19 @@
         <v>18912</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11779</v>
+        <v>11981</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29531</v>
+        <v>29733</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02889349472915974</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01799480656968685</v>
+        <v>0.0183039039215876</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04511641858514353</v>
+        <v>0.04542485091996976</v>
       </c>
     </row>
     <row r="20">
@@ -3926,19 +3926,19 @@
         <v>68665</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>54349</v>
+        <v>52709</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>84708</v>
+        <v>84065</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1895541898305838</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1500336182342457</v>
+        <v>0.1455061462872453</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.233843185197358</v>
+        <v>0.2320674703072951</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>46</v>
@@ -3947,19 +3947,19 @@
         <v>49421</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>37453</v>
+        <v>35932</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>63444</v>
+        <v>62391</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1690671708373852</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1281264484249938</v>
+        <v>0.1229214631885637</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2170405120314288</v>
+        <v>0.2134385197621457</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>112</v>
@@ -3968,19 +3968,19 @@
         <v>118085</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>99659</v>
+        <v>98425</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>142322</v>
+        <v>138773</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1804050541697289</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1522541011954931</v>
+        <v>0.150369107191388</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.21743290689775</v>
+        <v>0.2120100329340733</v>
       </c>
     </row>
     <row r="21">
@@ -3997,19 +3997,19 @@
         <v>190223</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>170333</v>
+        <v>170054</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>207636</v>
+        <v>207654</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5251240842852561</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4702167240848393</v>
+        <v>0.4694463835432174</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.573194600299806</v>
+        <v>0.5732454829916268</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>162</v>
@@ -4018,19 +4018,19 @@
         <v>170452</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>153583</v>
+        <v>151492</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>186043</v>
+        <v>187121</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5831158318214518</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5254049804471226</v>
+        <v>0.5182535860749695</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6364512356594337</v>
+        <v>0.6401390103977455</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>347</v>
@@ -4039,19 +4039,19 @@
         <v>360675</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>334939</v>
+        <v>335302</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>386690</v>
+        <v>385025</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5510221598224947</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5117040640384095</v>
+        <v>0.5122583026668281</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5907658419513977</v>
+        <v>0.5882230045211476</v>
       </c>
     </row>
     <row r="22">
@@ -4068,19 +4068,19 @@
         <v>89798</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>73687</v>
+        <v>74871</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>107298</v>
+        <v>107701</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2478941646128663</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2034175757508128</v>
+        <v>0.2066876984428059</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2962053683722519</v>
+        <v>0.2973173356830292</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>64</v>
@@ -4089,19 +4089,19 @@
         <v>67086</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>54223</v>
+        <v>52670</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>82700</v>
+        <v>83253</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2294991738438947</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1854966250618491</v>
+        <v>0.1801823134853985</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2829169382192062</v>
+        <v>0.2848092828237072</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>151</v>
@@ -4110,19 +4110,19 @@
         <v>156884</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>135571</v>
+        <v>134731</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>178129</v>
+        <v>180013</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2396792912786166</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2071186484020732</v>
+        <v>0.2058351850804186</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2721372280716139</v>
+        <v>0.2750148583195868</v>
       </c>
     </row>
     <row r="23">
@@ -4214,19 +4214,19 @@
         <v>21878</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13700</v>
+        <v>13767</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>32300</v>
+        <v>32274</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01622085114600613</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01015734261267843</v>
+        <v>0.01020696543054858</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02394716121339325</v>
+        <v>0.02392850639984714</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -4235,19 +4235,19 @@
         <v>13869</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7789</v>
+        <v>7606</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23602</v>
+        <v>22516</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0142655952155444</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008011542904456657</v>
+        <v>0.00782388466083817</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0242776494344847</v>
+        <v>0.02316013487593115</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>35</v>
@@ -4256,19 +4256,19 @@
         <v>35747</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>25277</v>
+        <v>25523</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>50795</v>
+        <v>48606</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01540185846656239</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01089081399600465</v>
+        <v>0.01099662410414155</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02188544642358042</v>
+        <v>0.02094224962372895</v>
       </c>
     </row>
     <row r="25">
@@ -4285,19 +4285,19 @@
         <v>212065</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>186057</v>
+        <v>184295</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>240771</v>
+        <v>243361</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1572268654444911</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1379441927181655</v>
+        <v>0.1366378191287119</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1785097602612026</v>
+        <v>0.1804297476717971</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>132</v>
@@ -4306,19 +4306,19 @@
         <v>144034</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>122479</v>
+        <v>122877</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>168275</v>
+        <v>169130</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1481568899507146</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1259851987284359</v>
+        <v>0.1263946734033532</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1730911329002981</v>
+        <v>0.17397143925403</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>332</v>
@@ -4327,19 +4327,19 @@
         <v>356099</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>321082</v>
+        <v>319468</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>391401</v>
+        <v>394862</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1534277497295561</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1383405051178882</v>
+        <v>0.1376448361610953</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1686378598830051</v>
+        <v>0.1701289279994357</v>
       </c>
     </row>
     <row r="26">
@@ -4356,19 +4356,19 @@
         <v>830533</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>793166</v>
+        <v>792974</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>867108</v>
+        <v>864639</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6157641536452841</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5880602002926667</v>
+        <v>0.5879175799408751</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6428812303964364</v>
+        <v>0.6410506153015779</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>564</v>
@@ -4377,19 +4377,19 @@
         <v>612768</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>581995</v>
+        <v>578747</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>643385</v>
+        <v>643215</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6303078583135657</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5986535137287878</v>
+        <v>0.5953132609571802</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6618006065131785</v>
+        <v>0.6616258051845502</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1337</v>
@@ -4398,19 +4398,19 @@
         <v>1443301</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1389354</v>
+        <v>1398132</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1488438</v>
+        <v>1494061</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6218560352602406</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5986127589926595</v>
+        <v>0.6023947575943585</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6413036370801812</v>
+        <v>0.6437260781964759</v>
       </c>
     </row>
     <row r="27">
@@ -4427,19 +4427,19 @@
         <v>284308</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>255071</v>
+        <v>256787</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>314832</v>
+        <v>317420</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2107881297642186</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1891116945424073</v>
+        <v>0.1903840445137511</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2334188268448797</v>
+        <v>0.2353382398537144</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>185</v>
@@ -4448,19 +4448,19 @@
         <v>201502</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>176622</v>
+        <v>176371</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>228653</v>
+        <v>231613</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2072696565201753</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1816773522516782</v>
+        <v>0.1814189990627535</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2351983228053117</v>
+        <v>0.2382425927136789</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>456</v>
@@ -4469,19 +4469,19 @@
         <v>485810</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>447795</v>
+        <v>444309</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>530729</v>
+        <v>525677</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2093143565436409</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1929354065563687</v>
+        <v>0.1914336199518372</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2286681231016595</v>
+        <v>0.2264915615467957</v>
       </c>
     </row>
     <row r="28">
@@ -4813,19 +4813,19 @@
         <v>7973</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3521</v>
+        <v>3915</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15153</v>
+        <v>15555</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03193100194559324</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01410078476398331</v>
+        <v>0.01567768970843431</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0606816645491372</v>
+        <v>0.06229346517417776</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4834,19 +4834,19 @@
         <v>3274</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9594</v>
+        <v>9552</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01969728338914649</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004978232049630211</v>
+        <v>0.004993693183006246</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05772477889500337</v>
+        <v>0.05747626452673267</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -4855,19 +4855,19 @@
         <v>11247</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5876</v>
+        <v>6020</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19239</v>
+        <v>19006</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02704240807023176</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01412885260361728</v>
+        <v>0.01447350373676793</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04625885416247869</v>
+        <v>0.04569862321594451</v>
       </c>
     </row>
     <row r="5">
@@ -4884,19 +4884,19 @@
         <v>41315</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30290</v>
+        <v>29807</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>55164</v>
+        <v>53715</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1654527594018978</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1213005673549352</v>
+        <v>0.1193669948158533</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2209148396613723</v>
+        <v>0.215110849115234</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -4905,19 +4905,19 @@
         <v>36814</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27125</v>
+        <v>27580</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48095</v>
+        <v>48408</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2215097835656557</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1632143987987856</v>
+        <v>0.1659521685937035</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2893906260472968</v>
+        <v>0.2912712777033903</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>76</v>
@@ -4926,19 +4926,19 @@
         <v>78129</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>63091</v>
+        <v>63359</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>95109</v>
+        <v>97088</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.187853145983746</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1516949399114385</v>
+        <v>0.1523407640948302</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2286808497287706</v>
+        <v>0.2334376115607021</v>
       </c>
     </row>
     <row r="6">
@@ -4955,19 +4955,19 @@
         <v>148169</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>131870</v>
+        <v>131734</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>163155</v>
+        <v>164530</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5933664951523631</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5280957171915651</v>
+        <v>0.5275504648099916</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6533802233507529</v>
+        <v>0.658885635809784</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>92</v>
@@ -4976,19 +4976,19 @@
         <v>91540</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>78956</v>
+        <v>78230</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>103943</v>
+        <v>104064</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5507980037014257</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4750813202763327</v>
+        <v>0.4707142053773674</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6254250643659849</v>
+        <v>0.6261550230579236</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>230</v>
@@ -4997,19 +4997,19 @@
         <v>239709</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>218672</v>
+        <v>221654</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>258788</v>
+        <v>260719</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5763561261766301</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5257747409303926</v>
+        <v>0.5329454076536784</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6222290546487487</v>
+        <v>0.6268729083041544</v>
       </c>
     </row>
     <row r="7">
@@ -5026,19 +5026,19 @@
         <v>52252</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40709</v>
+        <v>39879</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67060</v>
+        <v>65957</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2092497435001459</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1630271459162723</v>
+        <v>0.1597008267347081</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2685512383453129</v>
+        <v>0.2641348860926549</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -5047,19 +5047,19 @@
         <v>34568</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24745</v>
+        <v>25607</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46313</v>
+        <v>46066</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2079949293437721</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1488937869922857</v>
+        <v>0.1540803671614968</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2786654936728465</v>
+        <v>0.2771820870783631</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>85</v>
@@ -5068,19 +5068,19 @@
         <v>86819</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71391</v>
+        <v>70660</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>103928</v>
+        <v>103727</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2087483197693921</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1716514386186504</v>
+        <v>0.1698947125483715</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2498848706492992</v>
+        <v>0.2494016998186298</v>
       </c>
     </row>
     <row r="8">
@@ -5172,19 +5172,19 @@
         <v>14059</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7988</v>
+        <v>8046</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23072</v>
+        <v>23197</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04277143952146688</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02430262768626636</v>
+        <v>0.02447768305406959</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07019105486847038</v>
+        <v>0.07057183588740323</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -5193,19 +5193,19 @@
         <v>10732</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5697</v>
+        <v>5107</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18222</v>
+        <v>17658</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03991744917829444</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02118907823787492</v>
+        <v>0.0189966194590322</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06777541096613288</v>
+        <v>0.06567580372605404</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -5214,19 +5214,19 @@
         <v>24791</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>16796</v>
+        <v>16840</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>35929</v>
+        <v>35924</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04148734460778513</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02810736386838198</v>
+        <v>0.02818181166498838</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06012550889959331</v>
+        <v>0.06011648588440083</v>
       </c>
     </row>
     <row r="10">
@@ -5243,19 +5243,19 @@
         <v>54136</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41550</v>
+        <v>40955</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69963</v>
+        <v>70114</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1646960634721353</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1264043937973469</v>
+        <v>0.1245969159889858</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2128466474438302</v>
+        <v>0.2133044478148079</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -5264,19 +5264,19 @@
         <v>44331</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33958</v>
+        <v>32235</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58832</v>
+        <v>56704</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1648854856924426</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1263030156970788</v>
+        <v>0.1198954321631406</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2188192348388654</v>
+        <v>0.2109022527375091</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>91</v>
@@ -5285,19 +5285,19 @@
         <v>98468</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>81250</v>
+        <v>80560</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>117651</v>
+        <v>118257</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1647812901479076</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.135967960908085</v>
+        <v>0.1348133366512405</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1968844307741487</v>
+        <v>0.1978977447148637</v>
       </c>
     </row>
     <row r="11">
@@ -5314,19 +5314,19 @@
         <v>199223</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>179456</v>
+        <v>181147</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>217647</v>
+        <v>217279</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6060884765851515</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5459503668469878</v>
+        <v>0.5510977676677361</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.662140125319196</v>
+        <v>0.6610196978608166</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>165</v>
@@ -5335,19 +5335,19 @@
         <v>170419</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151823</v>
+        <v>153615</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>185635</v>
+        <v>186281</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6338537557864059</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5646858109334771</v>
+        <v>0.5713532938257211</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6904487870659741</v>
+        <v>0.6928498166743907</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>344</v>
@@ -5356,19 +5356,19 @@
         <v>369642</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>343365</v>
+        <v>341569</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>392175</v>
+        <v>392971</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6185808993029007</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5746067353789519</v>
+        <v>0.5716008596653567</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6562885845812785</v>
+        <v>0.6576201259530727</v>
       </c>
     </row>
     <row r="12">
@@ -5385,19 +5385,19 @@
         <v>61285</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>47434</v>
+        <v>48250</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>76076</v>
+        <v>76834</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1864440204212463</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1443061464644446</v>
+        <v>0.1467899294532298</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.231441775103073</v>
+        <v>0.2337484623560307</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>40</v>
@@ -5406,19 +5406,19 @@
         <v>43379</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>32475</v>
+        <v>32545</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>57958</v>
+        <v>57971</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1613433093428571</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1207864365399071</v>
+        <v>0.1210471985788157</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2155679758453615</v>
+        <v>0.2156155755725341</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>96</v>
@@ -5427,19 +5427,19 @@
         <v>104664</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>86042</v>
+        <v>85948</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>123517</v>
+        <v>127807</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1751504659414065</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.143987895311449</v>
+        <v>0.1438308488430132</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2067002046224862</v>
+        <v>0.2138794864417433</v>
       </c>
     </row>
     <row r="13">
@@ -5531,19 +5531,19 @@
         <v>8928</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4103</v>
+        <v>4036</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17068</v>
+        <v>16764</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02939857740955115</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01351223246536105</v>
+        <v>0.0132914830020919</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05620470612689964</v>
+        <v>0.0552036587700627</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -5555,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6892</v>
+        <v>6874</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.008858007018649675</v>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03099730494029487</v>
+        <v>0.03091482228700345</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -5573,19 +5573,19 @@
         <v>10897</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5746</v>
+        <v>5159</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19780</v>
+        <v>19697</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02071633026959996</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01092275260539967</v>
+        <v>0.009806884418300934</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03760292960340328</v>
+        <v>0.037446225957558</v>
       </c>
     </row>
     <row r="15">
@@ -5602,19 +5602,19 @@
         <v>71993</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>57059</v>
+        <v>57264</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>88114</v>
+        <v>88651</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2370742058063361</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1878965342013691</v>
+        <v>0.1885718507283859</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2901596081951871</v>
+        <v>0.291926814288087</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>66</v>
@@ -5623,19 +5623,19 @@
         <v>67308</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>53839</v>
+        <v>54785</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>80863</v>
+        <v>81380</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3027283130882346</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2421469583445964</v>
+        <v>0.2464011507855654</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3636911330187116</v>
+        <v>0.36601556128241</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>128</v>
@@ -5644,19 +5644,19 @@
         <v>139302</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>118439</v>
+        <v>119101</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>158508</v>
+        <v>160553</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2648253915974964</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.22516347804393</v>
+        <v>0.2264217201135845</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3013378767564079</v>
+        <v>0.3052255468816167</v>
       </c>
     </row>
     <row r="16">
@@ -5673,19 +5673,19 @@
         <v>138893</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>122186</v>
+        <v>121117</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>157438</v>
+        <v>157323</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4573760597311122</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4023575720768774</v>
+        <v>0.3988399105342127</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5184451510615243</v>
+        <v>0.5180654632509348</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>98</v>
@@ -5694,19 +5694,19 @@
         <v>102089</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>87515</v>
+        <v>86177</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>117479</v>
+        <v>115811</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4591613832496886</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.393609184079984</v>
+        <v>0.387593947115645</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5283796167601297</v>
+        <v>0.520873626079782</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>223</v>
@@ -5715,19 +5715,19 @@
         <v>240983</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>217256</v>
+        <v>217237</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>262254</v>
+        <v>266563</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4581306940824501</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4130238748990588</v>
+        <v>0.412987029553825</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4985696432655554</v>
+        <v>0.5067612591755535</v>
       </c>
     </row>
     <row r="17">
@@ -5744,19 +5744,19 @@
         <v>83860</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>69044</v>
+        <v>68866</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>99919</v>
+        <v>101496</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2761511570530006</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2273607045325197</v>
+        <v>0.2267754959671956</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3290331446199166</v>
+        <v>0.3342275794746255</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>49</v>
@@ -5765,19 +5765,19 @@
         <v>50972</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39349</v>
+        <v>39511</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>65153</v>
+        <v>65500</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2292522966434271</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1769757499670261</v>
+        <v>0.1777064889905626</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2930353823008515</v>
+        <v>0.2945951455759003</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>125</v>
@@ -5786,19 +5786,19 @@
         <v>134832</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>115836</v>
+        <v>113668</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>157763</v>
+        <v>155805</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2563275840504536</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2202159043675034</v>
+        <v>0.2160932490112113</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2999227591454492</v>
+        <v>0.2961992604940236</v>
       </c>
     </row>
     <row r="18">
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6087</v>
+        <v>6013</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006966401049554712</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0216694238936137</v>
+        <v>0.02140593060684549</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -5911,19 +5911,19 @@
         <v>6924</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2908</v>
+        <v>2910</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14482</v>
+        <v>13000</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02701591599623541</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01134687117415234</v>
+        <v>0.01135185472032779</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05650311382024362</v>
+        <v>0.05072155860282526</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -5932,19 +5932,19 @@
         <v>8881</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4096</v>
+        <v>4046</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16420</v>
+        <v>15713</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01653218442347244</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00762487155017339</v>
+        <v>0.007531318449685656</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03056519042473478</v>
+        <v>0.02924969260814588</v>
       </c>
     </row>
     <row r="20">
@@ -5961,19 +5961,19 @@
         <v>61910</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>49706</v>
+        <v>49123</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>76195</v>
+        <v>77449</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2203981789784004</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1769520488868785</v>
+        <v>0.1748761143482755</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2712522537031419</v>
+        <v>0.2757157110504376</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -5982,19 +5982,19 @@
         <v>34629</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24700</v>
+        <v>23715</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46477</v>
+        <v>46469</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1351074091981389</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09636867898504739</v>
+        <v>0.09252540381319461</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1813361816932387</v>
+        <v>0.1813035688740968</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>92</v>
@@ -6003,19 +6003,19 @@
         <v>96538</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>80212</v>
+        <v>79982</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>115704</v>
+        <v>115501</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.179705272956365</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1493135178907511</v>
+        <v>0.1488859068958472</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2153812314309901</v>
+        <v>0.215004459843928</v>
       </c>
     </row>
     <row r="21">
@@ -6032,19 +6032,19 @@
         <v>163344</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>147100</v>
+        <v>147308</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>178524</v>
+        <v>179697</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5815005616110434</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5236746643132251</v>
+        <v>0.5244133133615545</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.635542501756545</v>
+        <v>0.6397172479673641</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>153</v>
@@ -6053,19 +6053,19 @@
         <v>158045</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>140897</v>
+        <v>143097</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>173631</v>
+        <v>173993</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6166300470823662</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5497260965656263</v>
+        <v>0.5583103922020989</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6774421599365458</v>
+        <v>0.6788541002415256</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>315</v>
@@ -6074,19 +6074,19 @@
         <v>321388</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>296842</v>
+        <v>299959</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>343660</v>
+        <v>345035</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5982611191082958</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5525685862616529</v>
+        <v>0.5583702303514858</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6397204884034046</v>
+        <v>0.6422798044070233</v>
       </c>
     </row>
     <row r="22">
@@ -6103,19 +6103,19 @@
         <v>53690</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>41106</v>
+        <v>42078</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>66619</v>
+        <v>67587</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1911348583610016</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.146338396739769</v>
+        <v>0.1497958154699427</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2371621190724097</v>
+        <v>0.2406088142942103</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -6124,19 +6124,19 @@
         <v>56706</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43831</v>
+        <v>43679</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72090</v>
+        <v>71459</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2212466277232595</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1710119007372333</v>
+        <v>0.17042059897506</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2812660380040305</v>
+        <v>0.2788075617214078</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>106</v>
@@ -6145,19 +6145,19 @@
         <v>110396</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>90682</v>
+        <v>94093</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>130401</v>
+        <v>130441</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2055014235118667</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1688043432964106</v>
+        <v>0.1751527806610723</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2427404164488025</v>
+        <v>0.2428153419704144</v>
       </c>
     </row>
     <row r="23">
@@ -6249,19 +6249,19 @@
         <v>32917</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23047</v>
+        <v>22726</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>45504</v>
+        <v>45839</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02830386996230591</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01981711191443668</v>
+        <v>0.01954149937930067</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03912694908454444</v>
+        <v>0.03941498057868265</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>23</v>
@@ -6270,19 +6270,19 @@
         <v>22900</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14552</v>
+        <v>14970</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>33690</v>
+        <v>33707</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02506254011375764</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01592661278743431</v>
+        <v>0.01638412244228438</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03687189778864635</v>
+        <v>0.03689089203585242</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>55</v>
@@ -6291,19 +6291,19 @@
         <v>55817</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>42893</v>
+        <v>43106</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>73658</v>
+        <v>73112</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02687774856345363</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02065451192270047</v>
+        <v>0.02075698586760553</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03546885720892178</v>
+        <v>0.03520610511847829</v>
       </c>
     </row>
     <row r="25">
@@ -6320,19 +6320,19 @@
         <v>229354</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>201820</v>
+        <v>203160</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>257014</v>
+        <v>258815</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1972115231903978</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1735358010006836</v>
+        <v>0.1746888243028952</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2209952698567408</v>
+        <v>0.2225438882257313</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>178</v>
@@ -6341,19 +6341,19 @@
         <v>183082</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>159134</v>
+        <v>157327</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>208438</v>
+        <v>208612</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2003744379412966</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1741638267888836</v>
+        <v>0.1721869781336002</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2281251632239188</v>
+        <v>0.2283156331783541</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>387</v>
@@ -6362,19 +6362,19 @@
         <v>412436</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>376597</v>
+        <v>375590</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>451903</v>
+        <v>445512</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1986031434881662</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1813451500984358</v>
+        <v>0.1808601226886426</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2176075292305652</v>
+        <v>0.2145301507885037</v>
       </c>
     </row>
     <row r="26">
@@ -6391,19 +6391,19 @@
         <v>649628</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>613961</v>
+        <v>616464</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>680705</v>
+        <v>688014</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5585869546734734</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5279181904548418</v>
+        <v>0.5300704665587119</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5853085901272977</v>
+        <v>0.5915927565317731</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>508</v>
@@ -6412,19 +6412,19 @@
         <v>522094</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>492741</v>
+        <v>488548</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>553778</v>
+        <v>550869</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5714056087958271</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5392806000303801</v>
+        <v>0.534690895578774</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6060820684199315</v>
+        <v>0.6028981563138183</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1112</v>
@@ -6433,19 +6433,19 @@
         <v>1171722</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1124743</v>
+        <v>1124840</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1221581</v>
+        <v>1215129</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5642269104331633</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5416048215962636</v>
+        <v>0.5416516814042249</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5882359063681808</v>
+        <v>0.5851288981021644</v>
       </c>
     </row>
     <row r="27">
@@ -6462,19 +6462,19 @@
         <v>251086</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>223246</v>
+        <v>221726</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>280629</v>
+        <v>280349</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2158976521738229</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1919597234622424</v>
+        <v>0.1906527530307789</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2413010254082398</v>
+        <v>0.2410598977780485</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>176</v>
@@ -6483,19 +6483,19 @@
         <v>185625</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>163105</v>
+        <v>161708</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>213804</v>
+        <v>212071</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2031574131491186</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1785107136810162</v>
+        <v>0.1769813436368317</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2339981147295006</v>
+        <v>0.2321011690899032</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>412</v>
@@ -6504,19 +6504,19 @@
         <v>436711</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>400820</v>
+        <v>402567</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>477508</v>
+        <v>478529</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2102921975152169</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1930094270466009</v>
+        <v>0.1938505842423665</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2299373644800578</v>
+        <v>0.2304289953183225</v>
       </c>
     </row>
     <row r="28">
